--- a/doc/接线ubuntu.xlsx
+++ b/doc/接线ubuntu.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shikang\robot\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,12 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="15">
-  <si>
-    <t xml:space="preserve">RPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESPEAKER</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="36">
+  <si>
+    <t>RPI</t>
+  </si>
+  <si>
+    <t>RESPEAKER</t>
   </si>
   <si>
     <r>
@@ -36,7 +40,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">面板</t>
+      <t>面板</t>
     </r>
     <r>
       <rPr>
@@ -46,14 +50,14 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">3v3</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">3v3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5V</t>
+      <t>3v3</t>
+    </r>
+  </si>
+  <si>
+    <t>3v3</t>
+  </si>
+  <si>
+    <t>5V</t>
   </si>
   <si>
     <r>
@@ -64,7 +68,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">面板</t>
+      <t>面板</t>
     </r>
     <r>
       <rPr>
@@ -74,7 +78,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">5V</t>
+      <t>5V</t>
     </r>
   </si>
   <si>
@@ -86,7 +90,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">声卡</t>
+      <t>声卡</t>
     </r>
     <r>
       <rPr>
@@ -96,11 +100,11 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">I2C</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">GND</t>
+      <t>I2C</t>
+    </r>
+  </si>
+  <si>
+    <t>GND</t>
   </si>
   <si>
     <r>
@@ -111,7 +115,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">串口</t>
+      <t>串口</t>
     </r>
     <r>
       <rPr>
@@ -121,7 +125,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">TX</t>
+      <t>TX</t>
     </r>
   </si>
   <si>
@@ -133,7 +137,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">串口</t>
+      <t>串口</t>
     </r>
     <r>
       <rPr>
@@ -143,7 +147,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">RX</t>
+      <t>RX</t>
     </r>
   </si>
   <si>
@@ -155,7 +159,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">声卡</t>
+      <t>声卡</t>
     </r>
     <r>
       <rPr>
@@ -165,14 +169,14 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">I2S</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">电机旋转</t>
-  </si>
-  <si>
-    <t xml:space="preserve">电机上下</t>
+      <t>I2S</t>
+    </r>
+  </si>
+  <si>
+    <t>电机旋转</t>
+  </si>
+  <si>
+    <t>电机上下</t>
   </si>
   <si>
     <r>
@@ -183,7 +187,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">声卡</t>
+      <t>声卡</t>
     </r>
     <r>
       <rPr>
@@ -193,7 +197,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">SPI</t>
+      <t>SPI</t>
     </r>
   </si>
   <si>
@@ -205,7 +209,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">面板</t>
+      <t>面板</t>
     </r>
     <r>
       <rPr>
@@ -215,18 +219,99 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">GND</t>
-    </r>
+      <t>GND</t>
+    </r>
+  </si>
+  <si>
+    <t>Arduino Uno 扩展板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L.H.Eye</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L.V.Eye</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R.H.Eye</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R.V.Eye</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L.Lip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R.Lip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jaw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeckTilt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeckTwist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L.EyeBrow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L.EyeLid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R.EyeBrow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R.EyeLLid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -235,26 +320,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -277,156 +353,399 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="3">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thick"/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="C2:O22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:T22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="3.42914979757085"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="3.42914979757085"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="5.35627530364372"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="8.57085020242915"/>
+    <col min="1" max="3" width="13.25"/>
+    <col min="4" max="4" width="5.375"/>
+    <col min="5" max="6" width="3.375"/>
+    <col min="7" max="7" width="5.375"/>
+    <col min="8" max="8" width="13.25"/>
+    <col min="9" max="9" width="8.625"/>
+    <col min="10" max="10" width="13.25"/>
+    <col min="11" max="11" width="5.375"/>
+    <col min="12" max="13" width="3.375"/>
+    <col min="14" max="14" width="5.375"/>
+    <col min="15" max="15" width="13.25"/>
+    <col min="16" max="1025" width="8.625"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="3:20">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,18 +762,24 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+    </row>
+    <row r="3" spans="3:20">
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="4">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="3">
         <v>2</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -466,10 +791,10 @@
       <c r="K3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="6" t="n">
+      <c r="L3" s="6">
         <v>1</v>
       </c>
-      <c r="M3" s="3" t="n">
+      <c r="M3" s="3">
         <v>2</v>
       </c>
       <c r="N3" s="3" t="s">
@@ -478,18 +803,27 @@
       <c r="O3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R3" s="18">
+        <v>0</v>
+      </c>
+      <c r="S3" s="9">
+        <v>11</v>
+      </c>
+      <c r="T3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="3:20">
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="3">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="4">
         <v>3</v>
       </c>
-      <c r="F4" s="7" t="n">
+      <c r="F4" s="7">
         <v>4</v>
       </c>
       <c r="G4" s="7" t="s">
@@ -498,30 +832,39 @@
       <c r="J4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="K4" s="3">
         <v>2</v>
       </c>
-      <c r="L4" s="4" t="n">
+      <c r="L4" s="4">
         <v>3</v>
       </c>
-      <c r="M4" s="5" t="n">
+      <c r="M4" s="5">
         <v>4</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R4" s="18">
+        <v>1</v>
+      </c>
+      <c r="S4" s="9">
+        <v>12</v>
+      </c>
+      <c r="T4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="3:20">
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="3">
         <v>3</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="4">
         <v>5</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="F5" s="7">
         <v>6</v>
       </c>
       <c r="G5" s="7" t="s">
@@ -530,59 +873,80 @@
       <c r="J5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="K5" s="3">
         <v>3</v>
       </c>
-      <c r="L5" s="4" t="n">
+      <c r="L5" s="4">
         <v>5</v>
       </c>
-      <c r="M5" s="5" t="n">
+      <c r="M5" s="5">
         <v>6</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="7" t="n">
+      <c r="Q5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" s="18">
+        <v>2</v>
+      </c>
+      <c r="S5" s="9">
+        <v>13</v>
+      </c>
+      <c r="T5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="3:20">
+      <c r="D6" s="7">
         <v>4</v>
       </c>
-      <c r="E6" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="F6" s="3" t="n">
+      <c r="E6" s="6">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3">
         <v>8</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="3">
         <v>14</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="K6" s="5">
         <v>4</v>
       </c>
-      <c r="L6" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="M6" s="5" t="n">
+      <c r="L6" s="6">
+        <v>7</v>
+      </c>
+      <c r="M6" s="5">
         <v>8</v>
       </c>
-      <c r="N6" s="5" t="n">
+      <c r="N6" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" s="18">
+        <v>3</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="3:20">
       <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="6">
         <v>9</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="3">
         <v>10</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="3">
         <v>15</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -591,118 +955,157 @@
       <c r="K7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="6" t="n">
+      <c r="L7" s="6">
         <v>9</v>
       </c>
-      <c r="M7" s="5" t="n">
+      <c r="M7" s="5">
         <v>10</v>
       </c>
-      <c r="N7" s="5" t="n">
+      <c r="N7" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q7" t="s">
+        <v>23</v>
+      </c>
+      <c r="R7" s="18">
+        <v>4</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="T7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="3:20">
       <c r="C8" s="8"/>
-      <c r="D8" s="9" t="n">
+      <c r="D8" s="9">
         <v>17</v>
       </c>
-      <c r="E8" s="10" t="n">
+      <c r="E8" s="10">
         <v>11</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="3">
         <v>12</v>
       </c>
-      <c r="G8" s="3" t="n">
+      <c r="G8" s="3">
         <v>18</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="K8" s="5">
         <v>17</v>
       </c>
-      <c r="L8" s="6" t="n">
+      <c r="L8" s="6">
         <v>11</v>
       </c>
-      <c r="M8" s="3" t="n">
+      <c r="M8" s="3">
         <v>12</v>
       </c>
-      <c r="N8" s="3" t="n">
+      <c r="N8" s="3">
         <v>18</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R8" s="18">
+        <v>5</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="3:20">
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="11" t="n">
+      <c r="D9" s="11">
         <v>27</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="4">
         <v>13</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="F9" s="7">
         <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="K9" s="5">
         <v>27</v>
       </c>
-      <c r="L9" s="6" t="n">
+      <c r="L9" s="6">
         <v>13</v>
       </c>
-      <c r="M9" s="5" t="n">
+      <c r="M9" s="5">
         <v>14</v>
       </c>
       <c r="N9" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q9" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" s="18">
+        <v>6</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="3:20">
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="11" t="n">
+      <c r="D10" s="11">
         <v>22</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="4">
         <v>15</v>
       </c>
-      <c r="F10" s="7" t="n">
+      <c r="F10" s="7">
         <v>16</v>
       </c>
-      <c r="G10" s="7" t="n">
+      <c r="G10" s="7">
         <v>23</v>
       </c>
-      <c r="K10" s="5" t="n">
+      <c r="K10" s="5">
         <v>22</v>
       </c>
-      <c r="L10" s="6" t="n">
+      <c r="L10" s="6">
         <v>15</v>
       </c>
-      <c r="M10" s="5" t="n">
+      <c r="M10" s="5">
         <v>16</v>
       </c>
-      <c r="N10" s="5" t="n">
+      <c r="N10" s="5">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q10" t="s">
+        <v>34</v>
+      </c>
+      <c r="R10" s="18">
+        <v>7</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="3:20">
       <c r="D11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="6" t="n">
+      <c r="E11" s="6">
         <v>17</v>
       </c>
-      <c r="F11" s="7" t="n">
+      <c r="F11" s="7">
         <v>18</v>
       </c>
-      <c r="G11" s="7" t="n">
+      <c r="G11" s="7">
         <v>24</v>
       </c>
       <c r="J11" s="12" t="s">
@@ -711,27 +1114,36 @@
       <c r="K11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="4" t="n">
+      <c r="L11" s="4">
         <v>17</v>
       </c>
-      <c r="M11" s="5" t="n">
+      <c r="M11" s="5">
         <v>18</v>
       </c>
-      <c r="N11" s="5" t="n">
+      <c r="N11" s="5">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q11" t="s">
+        <v>35</v>
+      </c>
+      <c r="R11" s="18">
+        <v>8</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="3:20">
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="3">
         <v>10</v>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="E12" s="4">
         <v>19</v>
       </c>
-      <c r="F12" s="7" t="n">
+      <c r="F12" s="7">
         <v>20</v>
       </c>
       <c r="G12" s="7" t="s">
@@ -740,140 +1152,156 @@
       <c r="J12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="3" t="n">
+      <c r="K12" s="3">
         <v>10</v>
       </c>
-      <c r="L12" s="4" t="n">
+      <c r="L12" s="4">
         <v>19</v>
       </c>
-      <c r="M12" s="5" t="n">
+      <c r="M12" s="5">
         <v>20</v>
       </c>
       <c r="N12" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q12" t="s">
+        <v>25</v>
+      </c>
+      <c r="R12" s="18">
+        <v>9</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="3:20">
       <c r="C13" s="13"/>
-      <c r="D13" s="14" t="n">
+      <c r="D13" s="14">
         <v>9</v>
       </c>
-      <c r="E13" s="15" t="n">
+      <c r="E13" s="15">
         <v>21</v>
       </c>
-      <c r="F13" s="7" t="n">
+      <c r="F13" s="7">
         <v>22</v>
       </c>
-      <c r="G13" s="7" t="n">
+      <c r="G13" s="7">
         <v>25</v>
       </c>
-      <c r="K13" s="5" t="n">
+      <c r="K13" s="5">
         <v>9</v>
       </c>
-      <c r="L13" s="6" t="n">
+      <c r="L13" s="6">
         <v>21</v>
       </c>
-      <c r="M13" s="5" t="n">
+      <c r="M13" s="5">
         <v>22</v>
       </c>
-      <c r="N13" s="5" t="n">
+      <c r="N13" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q13" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13" s="18">
+        <v>10</v>
+      </c>
+      <c r="S13" s="9"/>
+    </row>
+    <row r="14" spans="3:20">
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="D14" s="3">
         <v>11</v>
       </c>
-      <c r="E14" s="4" t="n">
+      <c r="E14" s="4">
         <v>23</v>
       </c>
-      <c r="F14" s="16" t="n">
+      <c r="F14" s="16">
         <v>24</v>
       </c>
-      <c r="G14" s="16" t="n">
+      <c r="G14" s="16">
         <v>8</v>
       </c>
       <c r="H14" s="13"/>
       <c r="J14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="3" t="n">
+      <c r="K14" s="3">
         <v>11</v>
       </c>
-      <c r="L14" s="4" t="n">
+      <c r="L14" s="4">
         <v>23</v>
       </c>
-      <c r="M14" s="5" t="n">
+      <c r="M14" s="5">
         <v>24</v>
       </c>
-      <c r="N14" s="5" t="n">
+      <c r="N14" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="3:20">
       <c r="D15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="6" t="n">
+      <c r="E15" s="6">
         <v>25</v>
       </c>
-      <c r="F15" s="16" t="n">
+      <c r="F15" s="16">
         <v>26</v>
       </c>
-      <c r="G15" s="16" t="n">
+      <c r="G15" s="16">
         <v>7</v>
       </c>
       <c r="H15" s="13"/>
       <c r="K15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L15" s="6" t="n">
+      <c r="L15" s="6">
         <v>25</v>
       </c>
-      <c r="M15" s="5" t="n">
+      <c r="M15" s="5">
         <v>26</v>
       </c>
-      <c r="N15" s="5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="7" t="n">
+      <c r="N15" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="3:20">
+      <c r="D16" s="7">
         <v>0</v>
       </c>
-      <c r="E16" s="6" t="n">
+      <c r="E16" s="6">
         <v>27</v>
       </c>
-      <c r="F16" s="7" t="n">
+      <c r="F16" s="7">
         <v>28</v>
       </c>
-      <c r="G16" s="7" t="n">
+      <c r="G16" s="7">
         <v>1</v>
       </c>
-      <c r="K16" s="5" t="n">
+      <c r="K16" s="5">
         <v>0</v>
       </c>
-      <c r="L16" s="6" t="n">
+      <c r="L16" s="6">
         <v>27</v>
       </c>
-      <c r="M16" s="5" t="n">
+      <c r="M16" s="5">
         <v>28</v>
       </c>
-      <c r="N16" s="5" t="n">
+      <c r="N16" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="5" t="n">
+    <row r="17" spans="3:18">
+      <c r="D17" s="5">
         <v>5</v>
       </c>
-      <c r="E17" s="6" t="n">
+      <c r="E17" s="6">
         <v>29</v>
       </c>
-      <c r="F17" s="7" t="n">
+      <c r="F17" s="7">
         <v>30</v>
       </c>
       <c r="G17" s="7" t="s">
@@ -882,150 +1310,154 @@
       <c r="J17" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3" t="n">
+      <c r="K17" s="3">
         <v>5</v>
       </c>
-      <c r="L17" s="4" t="n">
+      <c r="L17" s="4">
         <v>29</v>
       </c>
-      <c r="M17" s="5" t="n">
+      <c r="M17" s="5">
         <v>30</v>
       </c>
       <c r="N17" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="7" t="n">
+    <row r="18" spans="3:18">
+      <c r="D18" s="7">
         <v>6</v>
       </c>
-      <c r="E18" s="6" t="n">
+      <c r="E18" s="6">
         <v>31</v>
       </c>
-      <c r="F18" s="7" t="n">
+      <c r="F18" s="7">
         <v>32</v>
       </c>
-      <c r="G18" s="7" t="n">
+      <c r="G18" s="7">
         <v>12</v>
       </c>
-      <c r="K18" s="5" t="n">
+      <c r="K18" s="5">
         <v>6</v>
       </c>
-      <c r="L18" s="6" t="n">
+      <c r="L18" s="6">
         <v>31</v>
       </c>
-      <c r="M18" s="5" t="n">
+      <c r="M18" s="5">
         <v>32</v>
       </c>
-      <c r="N18" s="5" t="n">
+      <c r="N18" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="7" t="n">
+      <c r="R18" s="8"/>
+    </row>
+    <row r="19" spans="3:18">
+      <c r="D19" s="7">
         <v>13</v>
       </c>
-      <c r="E19" s="6" t="n">
+      <c r="E19" s="6">
         <v>33</v>
       </c>
-      <c r="F19" s="7" t="n">
+      <c r="F19" s="7">
         <v>34</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K19" s="5" t="n">
+      <c r="K19" s="5">
         <v>13</v>
       </c>
-      <c r="L19" s="6" t="n">
+      <c r="L19" s="6">
         <v>33</v>
       </c>
-      <c r="M19" s="5" t="n">
+      <c r="M19" s="5">
         <v>34</v>
       </c>
       <c r="N19" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R19" s="8"/>
+    </row>
+    <row r="20" spans="3:18">
       <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="3" t="n">
+      <c r="D20" s="3">
         <v>19</v>
       </c>
-      <c r="E20" s="4" t="n">
+      <c r="E20" s="4">
         <v>35</v>
       </c>
-      <c r="F20" s="9" t="n">
+      <c r="F20" s="9">
         <v>36</v>
       </c>
-      <c r="G20" s="9" t="n">
+      <c r="G20" s="9">
         <v>16</v>
       </c>
       <c r="H20" s="8"/>
       <c r="J20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K20" s="3" t="n">
+      <c r="K20" s="3">
         <v>19</v>
       </c>
-      <c r="L20" s="4" t="n">
+      <c r="L20" s="4">
         <v>35</v>
       </c>
-      <c r="M20" s="5" t="n">
+      <c r="M20" s="5">
         <v>36</v>
       </c>
-      <c r="N20" s="5" t="n">
+      <c r="N20" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="7" t="n">
+      <c r="R20" s="8"/>
+    </row>
+    <row r="21" spans="3:18">
+      <c r="D21" s="7">
         <v>26</v>
       </c>
-      <c r="E21" s="6" t="n">
+      <c r="E21" s="6">
         <v>37</v>
       </c>
-      <c r="F21" s="3" t="n">
+      <c r="F21" s="3">
         <v>38</v>
       </c>
-      <c r="G21" s="3" t="n">
+      <c r="G21" s="3">
         <v>20</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K21" s="5" t="n">
+      <c r="K21" s="5">
         <v>26</v>
       </c>
-      <c r="L21" s="6" t="n">
+      <c r="L21" s="6">
         <v>37</v>
       </c>
-      <c r="M21" s="3" t="n">
+      <c r="M21" s="3">
         <v>38</v>
       </c>
-      <c r="N21" s="3" t="n">
+      <c r="N21" s="3">
         <v>20</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R21" s="8"/>
+    </row>
+    <row r="22" spans="3:18">
       <c r="C22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="4" t="n">
+      <c r="E22" s="4">
         <v>39</v>
       </c>
-      <c r="F22" s="3" t="n">
+      <c r="F22" s="3">
         <v>40</v>
       </c>
-      <c r="G22" s="3" t="n">
+      <c r="G22" s="3">
         <v>21</v>
       </c>
       <c r="H22" s="2" t="s">
@@ -1037,30 +1469,28 @@
       <c r="K22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L22" s="4" t="n">
+      <c r="L22" s="4">
         <v>39</v>
       </c>
-      <c r="M22" s="3" t="n">
+      <c r="M22" s="3">
         <v>40</v>
       </c>
-      <c r="N22" s="3" t="n">
+      <c r="N22" s="3">
         <v>21</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="R22" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="J2:O2"/>
+    <mergeCell ref="Q2:T2"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>